--- a/Lab/data/lab_06-02_delivery_data.xlsx
+++ b/Lab/data/lab_06-02_delivery_data.xlsx
@@ -300,211 +300,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
@@ -999,18 +795,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1021,564 +817,564 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>87.602195739746094</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>88.325462341308594</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>11.654936790466309</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
         <v>30.968666076660156</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>20.694852828979492</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>169.26025390625</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5">
         <v>55.092044830322266</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>22.3438720703125</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5">
         <v>22.273750305175781</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>13.57961368560791</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>12.097277641296387</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>62.599075317382813</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>13.467207908630371</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
         <v>7.8510823249816895</v>
       </c>
-      <c r="C15" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>24.47235107421875</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>27.790939331054687</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5">
         <v>13.51453685760498</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="5">
         <v>3.3729033470153809</v>
       </c>
-      <c r="C19" s="6">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5">
         <v>32.878303527832031</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="5">
         <v>14.066478729248047</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5">
         <v>378.58639526367188</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="5">
         <v>378.58639526367188</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="5">
         <v>378.58639526367188</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>94.320404052734375</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>17.457193374633789</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>7.868685245513916</v>
       </c>
-      <c r="C27" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>96.693748474121094</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="5">
         <v>70.2469482421875</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="5">
         <v>68.0699462890625</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="5">
         <v>6.1111578941345215</v>
       </c>
-      <c r="C31" s="6">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="5">
         <v>104.90166473388672</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="5">
         <v>68.396270751953125</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="5">
         <v>2.0676145553588867</v>
       </c>
-      <c r="C34" s="6">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="5">
         <v>13.631957054138184</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="5">
         <v>10.480454444885254</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="5">
         <v>14.807291030883789</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="5">
         <v>53.487186431884766</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="5">
         <v>17.51976203918457</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="5">
         <v>17.071140289306641</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="5">
         <v>8.1669464111328125</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="5">
         <v>14.768813133239746</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="5">
         <v>15.462172508239746</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="5">
         <v>31.123031616210937</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="5">
         <v>17.621370315551758</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="5">
         <v>12.446319580078125</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="5">
         <v>6.7313628196716309</v>
       </c>
-      <c r="C47" s="6">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>13.028436660766602</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="5">
         <v>25.024980545043945</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="5">
         <v>13.193115234375</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B50 B29:B44">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B28">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1588,32 +1384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>IF(#REF!="미계약정보",1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C50 C29:C44">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>IF(#REF!="미계약정보",1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C28">
-    <cfRule type="expression" dxfId="7" priority="4">
-      <formula>IF(#REF!="미계약정보",1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>IF(#REF!="미계약정보",1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>IF(#REF!="미계약정보",1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1629,14 +1400,14 @@
       <selection activeCell="C2" sqref="C2:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1647,7 +1418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1669,7 +1440,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1680,7 +1451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +1462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +1484,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1724,7 +1495,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1735,7 +1506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1746,7 +1517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1757,7 +1528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1768,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1779,7 +1550,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1790,7 +1561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1801,7 +1572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1812,7 +1583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1823,7 +1594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +1605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1845,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1856,7 +1627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1867,7 +1638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +1649,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1889,7 +1660,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -1900,7 +1671,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1911,7 +1682,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +1693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -1933,7 +1704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1944,7 +1715,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1955,7 +1726,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1966,7 +1737,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1977,7 +1748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1988,7 +1759,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
@@ -1999,7 +1770,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -2010,7 +1781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -2021,7 +1792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -2032,7 +1803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -2043,7 +1814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -2054,7 +1825,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -2065,7 +1836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -2076,7 +1847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -2087,7 +1858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -2098,7 +1869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -2109,7 +1880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -2120,7 +1891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -2131,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
@@ -2142,7 +1913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -2153,7 +1924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -2164,7 +1935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -2175,7 +1946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -2186,7 +1957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -2194,37 +1965,37 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:C50 B29:C44">
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C28">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C47">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:C46">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:C45">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C51">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(#REF!="미계약정보",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
